--- a/templates/dataplant/MIAPE/MIAPE_-_Gel_electrophoresis.xlsx
+++ b/templates/dataplant/MIAPE/MIAPE_-_Gel_electrophoresis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -179,6 +179,15 @@
     <t>Term Accession Number (DPBO:0000144)</t>
   </si>
   <si>
+    <t>Parameter [gel electrophoresis dimension]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000174)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000174)</t>
+  </si>
+  <si>
     <t>Parameter [gel electrophoresis separation method]</t>
   </si>
   <si>
@@ -312,6 +321,9 @@
   </si>
   <si>
     <t>Laemmli buffer</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>sodium dodecyl sulfate polyacrylamide gel electrophoresis</t>
@@ -406,8 +418,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AW2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:AW2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AZ2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:AZ2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -457,8 +469,11 @@
     <filterColumn colId="46" hiddenButton="1"/>
     <filterColumn colId="47" hiddenButton="1"/>
     <filterColumn colId="48" hiddenButton="1"/>
+    <filterColumn colId="49" hiddenButton="1"/>
+    <filterColumn colId="50" hiddenButton="1"/>
+    <filterColumn colId="51" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="49">
+  <tableColumns count="52">
     <tableColumn id="1" name="Input [Sample Name]" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Parameter [gel electrophoresis dimension type]" totalsRowFunction="none"/>
     <tableColumn id="3" name="Term Source REF (DPBO:0000143)" totalsRowFunction="none"/>
@@ -466,48 +481,51 @@
     <tableColumn id="5" name="Component [loading buffer]" totalsRowFunction="none"/>
     <tableColumn id="6" name="Term Source REF (DPBO:0000144)" totalsRowFunction="none"/>
     <tableColumn id="7" name="Term Accession Number (DPBO:0000144)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Parameter [gel electrophoresis separation method]" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Term Source REF (DPBO:0000145)" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Accession Number (DPBO:0000145)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Parameter [gel matrix type]" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Term Source REF (DPBO:0000146)" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Accession Number (DPBO:0000146)" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Parameter [gel manufacture]" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Term Source REF (DPBO:0000147)" totalsRowFunction="none"/>
-    <tableColumn id="16" name="Term Accession Number (DPBO:0000147)" totalsRowFunction="none"/>
-    <tableColumn id="17" name="Parameter [physical dimensions of the gel]" totalsRowFunction="none"/>
-    <tableColumn id="18" name="Term Source REF (DPBO:0000148)" totalsRowFunction="none"/>
-    <tableColumn id="19" name="Term Accession Number (DPBO:0000148)" totalsRowFunction="none"/>
-    <tableColumn id="20" name="Parameter [physicochemical property range and distribution of the gel]" totalsRowFunction="none"/>
-    <tableColumn id="21" name="Term Source REF (DPBO:0000149)" totalsRowFunction="none"/>
-    <tableColumn id="22" name="Term Accession Number (DPBO:0000149)" totalsRowFunction="none"/>
-    <tableColumn id="23" name="Parameter [acrylamide concentration]" totalsRowFunction="none"/>
-    <tableColumn id="24" name="Term Source REF (DPBO:0000150)" totalsRowFunction="none"/>
-    <tableColumn id="25" name="Term Accession Number (DPBO:0000150)" totalsRowFunction="none"/>
-    <tableColumn id="26" name="Parameter [acrylamide crosslinker ratio]" totalsRowFunction="none"/>
-    <tableColumn id="27" name="Term Source REF (DPBO:0000151)" totalsRowFunction="none"/>
-    <tableColumn id="28" name="Term Accession Number (DPBO:0000151)" totalsRowFunction="none"/>
-    <tableColumn id="29" name="Parameter [additional gel ingredients]" totalsRowFunction="none"/>
-    <tableColumn id="30" name="Term Source REF (DPBO:0000152)" totalsRowFunction="none"/>
-    <tableColumn id="31" name="Term Accession Number (DPBO:0000152)" totalsRowFunction="none"/>
-    <tableColumn id="32" name="Parameter [gel lane number]" totalsRowFunction="none"/>
-    <tableColumn id="33" name="Term Source REF (DPBO:0000153)" totalsRowFunction="none"/>
-    <tableColumn id="34" name="Term Accession Number (DPBO:0000153)" totalsRowFunction="none"/>
-    <tableColumn id="35" name="Parameter [gel electrophoresis sample application]" totalsRowFunction="none"/>
-    <tableColumn id="36" name="Term Source REF (DPBO:0000154)" totalsRowFunction="none"/>
-    <tableColumn id="37" name="Term Accession Number (DPBO:0000154)" totalsRowFunction="none"/>
-    <tableColumn id="38" name="Parameter [running buffer]" totalsRowFunction="none"/>
-    <tableColumn id="39" name="Term Source REF (CHMO:0002501)" totalsRowFunction="none"/>
-    <tableColumn id="40" name="Term Accession Number (CHMO:0002501)" totalsRowFunction="none"/>
-    <tableColumn id="41" name="Parameter [electrophoresis conditions]" totalsRowFunction="none"/>
-    <tableColumn id="42" name="Term Source REF (DPBO:0000155)" totalsRowFunction="none"/>
-    <tableColumn id="43" name="Term Accession Number (DPBO:0000155)" totalsRowFunction="none"/>
-    <tableColumn id="44" name="Parameter [interdimension process]" totalsRowFunction="none"/>
-    <tableColumn id="45" name="Term Source REF (DPBO:0000156)" totalsRowFunction="none"/>
-    <tableColumn id="46" name="Term Accession Number (DPBO:0000156)" totalsRowFunction="none"/>
-    <tableColumn id="47" name="Output [Data]" totalsRowFunction="none"/>
-    <tableColumn id="48" name="Data Format" totalsRowFunction="none"/>
-    <tableColumn id="49" name="Data Selector Format" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Parameter [gel electrophoresis dimension]" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Term Source REF (DPBO:0000174)" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Term Accession Number (DPBO:0000174)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Parameter [gel electrophoresis separation method]" totalsRowFunction="none"/>
+    <tableColumn id="12" name="Term Source REF (DPBO:0000145)" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Term Accession Number (DPBO:0000145)" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Parameter [gel matrix type]" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Term Source REF (DPBO:0000146)" totalsRowFunction="none"/>
+    <tableColumn id="16" name="Term Accession Number (DPBO:0000146)" totalsRowFunction="none"/>
+    <tableColumn id="17" name="Parameter [gel manufacture]" totalsRowFunction="none"/>
+    <tableColumn id="18" name="Term Source REF (DPBO:0000147)" totalsRowFunction="none"/>
+    <tableColumn id="19" name="Term Accession Number (DPBO:0000147)" totalsRowFunction="none"/>
+    <tableColumn id="20" name="Parameter [physical dimensions of the gel]" totalsRowFunction="none"/>
+    <tableColumn id="21" name="Term Source REF (DPBO:0000148)" totalsRowFunction="none"/>
+    <tableColumn id="22" name="Term Accession Number (DPBO:0000148)" totalsRowFunction="none"/>
+    <tableColumn id="23" name="Parameter [physicochemical property range and distribution of the gel]" totalsRowFunction="none"/>
+    <tableColumn id="24" name="Term Source REF (DPBO:0000149)" totalsRowFunction="none"/>
+    <tableColumn id="25" name="Term Accession Number (DPBO:0000149)" totalsRowFunction="none"/>
+    <tableColumn id="26" name="Parameter [acrylamide concentration]" totalsRowFunction="none"/>
+    <tableColumn id="27" name="Term Source REF (DPBO:0000150)" totalsRowFunction="none"/>
+    <tableColumn id="28" name="Term Accession Number (DPBO:0000150)" totalsRowFunction="none"/>
+    <tableColumn id="29" name="Parameter [acrylamide crosslinker ratio]" totalsRowFunction="none"/>
+    <tableColumn id="30" name="Term Source REF (DPBO:0000151)" totalsRowFunction="none"/>
+    <tableColumn id="31" name="Term Accession Number (DPBO:0000151)" totalsRowFunction="none"/>
+    <tableColumn id="32" name="Parameter [additional gel ingredients]" totalsRowFunction="none"/>
+    <tableColumn id="33" name="Term Source REF (DPBO:0000152)" totalsRowFunction="none"/>
+    <tableColumn id="34" name="Term Accession Number (DPBO:0000152)" totalsRowFunction="none"/>
+    <tableColumn id="35" name="Parameter [gel lane number]" totalsRowFunction="none"/>
+    <tableColumn id="36" name="Term Source REF (DPBO:0000153)" totalsRowFunction="none"/>
+    <tableColumn id="37" name="Term Accession Number (DPBO:0000153)" totalsRowFunction="none"/>
+    <tableColumn id="38" name="Parameter [gel electrophoresis sample application]" totalsRowFunction="none"/>
+    <tableColumn id="39" name="Term Source REF (DPBO:0000154)" totalsRowFunction="none"/>
+    <tableColumn id="40" name="Term Accession Number (DPBO:0000154)" totalsRowFunction="none"/>
+    <tableColumn id="41" name="Parameter [running buffer]" totalsRowFunction="none"/>
+    <tableColumn id="42" name="Term Source REF (CHMO:0002501)" totalsRowFunction="none"/>
+    <tableColumn id="43" name="Term Accession Number (CHMO:0002501)" totalsRowFunction="none"/>
+    <tableColumn id="44" name="Parameter [electrophoresis conditions]" totalsRowFunction="none"/>
+    <tableColumn id="45" name="Term Source REF (DPBO:0000155)" totalsRowFunction="none"/>
+    <tableColumn id="46" name="Term Accession Number (DPBO:0000155)" totalsRowFunction="none"/>
+    <tableColumn id="47" name="Parameter [interdimension process]" totalsRowFunction="none"/>
+    <tableColumn id="48" name="Term Source REF (DPBO:0000156)" totalsRowFunction="none"/>
+    <tableColumn id="49" name="Term Accession Number (DPBO:0000156)" totalsRowFunction="none"/>
+    <tableColumn id="50" name="Output [Data]" totalsRowFunction="none"/>
+    <tableColumn id="51" name="Data Format" totalsRowFunction="none"/>
+    <tableColumn id="52" name="Data Selector Format" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1029,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW2"/>
+  <dimension ref="A1:AZ2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1180,154 +1198,172 @@
       <c r="AW1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="N2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="R2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="S2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="T2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="V2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="W2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="X2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Y2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AA2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AB2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AC2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AD2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AE2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AF2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="AG2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AH2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AI2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AJ2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AK2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AL2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AM2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AN2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AO2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AP2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AQ2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AR2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="AS2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AT2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AU2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AV2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AW2" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
